--- a/devices/Infineon_IGZ100N65H5_650V.xlsx
+++ b/devices/Infineon_IGZ100N65H5_650V.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Forward" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>175</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>Eon_vs_Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eon_vs_Vce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,21 +434,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -466,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.35201532000000002</v>
       </c>
@@ -481,7 +477,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1.3855873000000001</v>
       </c>
@@ -496,7 +492,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3.4527313999999998</v>
       </c>
@@ -511,7 +507,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6.0366613999999998</v>
       </c>
@@ -526,7 +522,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>9.9125565000000009</v>
       </c>
@@ -541,7 +537,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>14.822024000000001</v>
       </c>
@@ -556,7 +552,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>21.540241999999999</v>
       </c>
@@ -571,7 +567,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>29.292031999999999</v>
       </c>
@@ -586,7 +582,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>36.527036000000003</v>
       </c>
@@ -601,7 +597,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45.054004999999997</v>
       </c>
@@ -616,7 +612,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>53.839367000000003</v>
       </c>
@@ -631,7 +627,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>62.023645999999999</v>
       </c>
@@ -646,7 +642,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>71.713382999999993</v>
       </c>
@@ -661,7 +657,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>82.614338000000004</v>
       </c>
@@ -676,7 +672,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>95.937726999999995</v>
       </c>
@@ -691,7 +687,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>107.32317</v>
       </c>
@@ -706,7 +702,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>120.16207</v>
       </c>
@@ -721,7 +717,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>133.00097</v>
       </c>
@@ -736,7 +732,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>146.08212</v>
       </c>
@@ -751,7 +747,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>164.25038000000001</v>
       </c>
@@ -766,7 +762,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>177.57377</v>
       </c>
@@ -777,7 +773,7 @@
       <c r="E22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>202.36757</v>
       </c>
@@ -788,49 +784,49 @@
       <c r="E23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="2"/>
@@ -838,12 +834,12 @@
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="G32" s="2"/>
@@ -859,47 +855,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10.464798</v>
       </c>
@@ -926,7 +918,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>21.868589</v>
       </c>
@@ -953,7 +945,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>31.939630999999999</v>
       </c>
@@ -980,7 +972,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40.399306000000003</v>
       </c>
@@ -1007,7 +999,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>50.470346999999997</v>
       </c>
@@ -1034,7 +1026,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>61.787635999999999</v>
       </c>
@@ -1061,7 +1053,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>70.831467000000004</v>
       </c>
@@ -1088,7 +1080,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>81.917454000000006</v>
       </c>
@@ -1115,7 +1107,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>91.544758000000002</v>
       </c>
@@ -1142,7 +1134,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>103.50595</v>
       </c>
@@ -1169,7 +1161,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>110.79937</v>
       </c>
@@ -1196,7 +1188,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>117.80104</v>
       </c>
@@ -1222,7 +1214,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>131.5076</v>
       </c>
@@ -1248,7 +1240,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>146.11258000000001</v>
       </c>
@@ -1274,7 +1266,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>160.05368999999999</v>
       </c>
@@ -1299,7 +1291,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>169.34777</v>
       </c>
@@ -1324,7 +1316,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>182.62502000000001</v>
       </c>
@@ -1349,7 +1341,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>192.85695000000001</v>
       </c>
@@ -1374,7 +1366,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>205.39106000000001</v>
       </c>
@@ -1399,7 +1391,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>219.66602</v>
       </c>
@@ -1424,7 +1416,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>230.86614</v>
       </c>
@@ -1443,7 +1435,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>238.52837</v>
       </c>
@@ -1462,7 +1454,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>246.41595000000001</v>
       </c>
@@ -1480,7 +1472,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>259.93752000000001</v>
       </c>
@@ -1498,7 +1490,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>270.30405000000002</v>
       </c>
@@ -1510,7 +1502,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>279.09307000000001</v>
       </c>
@@ -1522,7 +1514,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>290.36104999999998</v>
       </c>
@@ -1549,40 +1541,40 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.25" customWidth="1"/>
-    <col min="13" max="14" width="10.25" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="1" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.21875" customWidth="1"/>
+    <col min="13" max="14" width="10.21875" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10.779356999999999</v>
       </c>
@@ -1608,7 +1600,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>17.990860000000001</v>
       </c>
@@ -1634,7 +1626,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>25.202363999999999</v>
       </c>
@@ -1660,7 +1652,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>31.452334</v>
       </c>
@@ -1686,7 +1678,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>38.423454999999997</v>
       </c>
@@ -1712,7 +1704,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46.356108999999996</v>
       </c>
@@ -1738,7 +1730,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>54.769530000000003</v>
       </c>
@@ -1764,7 +1756,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>62.461801000000001</v>
       </c>
@@ -1790,7 +1782,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>70.634838999999999</v>
       </c>
@@ -1816,7 +1808,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>78.327108999999993</v>
       </c>
@@ -1842,7 +1834,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>86.259764000000004</v>
       </c>
@@ -1868,7 +1860,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>94.192418000000004</v>
       </c>
@@ -1894,7 +1886,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>105.62381000000001</v>
       </c>
@@ -1920,7 +1912,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>116.57755</v>
       </c>
@@ -1946,7 +1938,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>129.16192000000001</v>
       </c>
@@ -1971,7 +1963,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>141.19996</v>
       </c>
@@ -1996,7 +1988,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>151.82176000000001</v>
       </c>
@@ -2021,7 +2013,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>167.08083999999999</v>
       </c>
@@ -2046,7 +2038,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>180.54958999999999</v>
       </c>
@@ -2071,7 +2063,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>194.01835</v>
       </c>
@@ -2096,7 +2088,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>205.30833000000001</v>
       </c>
@@ -2115,7 +2107,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>217.78673000000001</v>
       </c>
@@ -2134,7 +2126,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>232.27447000000001</v>
       </c>
@@ -2152,7 +2144,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>243.99315999999999</v>
       </c>
@@ -2170,7 +2162,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>255.26114000000001</v>
       </c>
@@ -2182,7 +2174,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>266.07839000000001</v>
       </c>
@@ -2194,7 +2186,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>275.09276999999997</v>
       </c>
@@ -2206,7 +2198,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>283.20571999999999</v>
       </c>
@@ -2218,7 +2210,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>292.67081000000002</v>
       </c>
@@ -2230,7 +2222,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>298.3048</v>
       </c>
@@ -2257,26 +2249,26 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.28000000000000003</v>
       </c>
@@ -2299,7 +2291,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -2316,7 +2308,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E4" s="6">
         <v>3.2449499302415239E-6</v>
       </c>
@@ -2330,7 +2322,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E5" s="6">
         <v>4.8716547204154895E-6</v>
       </c>
@@ -2344,7 +2336,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E6" s="6">
         <v>5.9471172378392622E-6</v>
       </c>
@@ -2358,7 +2350,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E7" s="6">
         <v>7.7591321743582687E-6</v>
       </c>
@@ -2372,7 +2364,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E8" s="6">
         <v>9.6130278386487337E-6</v>
       </c>
@@ -2386,7 +2378,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>1.1822210829421314E-5</v>
       </c>
@@ -2400,7 +2392,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E10" s="6">
         <v>1.4228158679213347E-5</v>
       </c>
@@ -2414,7 +2406,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E11" s="6">
         <v>1.7022672742432092E-5</v>
       </c>
@@ -2428,7 +2420,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E12" s="6">
         <v>2.0184260844299426E-5</v>
       </c>
@@ -2442,7 +2434,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="6">
         <v>2.4585542738157841E-5</v>
       </c>
@@ -2456,7 +2448,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E14" s="6">
         <v>2.9946546786750325E-5</v>
       </c>
@@ -2470,7 +2462,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E15" s="6">
         <v>3.6150957119133648E-5</v>
       </c>
@@ -2484,7 +2476,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E16" s="6">
         <v>4.4830610180329287E-5</v>
       </c>
@@ -2498,7 +2490,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E17" s="6">
         <v>5.4118736667971333E-5</v>
       </c>
@@ -2512,7 +2504,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E18" s="6">
         <v>6.3597317832197607E-5</v>
       </c>
@@ -2526,7 +2518,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E19" s="6">
         <v>7.9612846118116729E-5</v>
       </c>
@@ -2540,7 +2532,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E20" s="6">
         <v>9.5486670433427362E-5</v>
       </c>
@@ -2554,7 +2546,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E21" s="6">
         <v>1.1527162088268951E-4</v>
       </c>
@@ -2568,7 +2560,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E22" s="6">
         <v>1.3825536719566707E-4</v>
       </c>
@@ -2582,7 +2574,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1.7240964197478268E-4</v>
       </c>
@@ -2596,7 +2588,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E24" s="6">
         <v>2.4952955954097341E-4</v>
       </c>
@@ -2610,7 +2602,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E25" s="6">
         <v>3.446999337990283E-4</v>
       </c>
@@ -2624,7 +2616,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E26" s="6">
         <v>5.0317302427532414E-4</v>
       </c>
@@ -2638,7 +2630,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E27" s="6">
         <v>7.4617088636261025E-4</v>
       </c>
@@ -2652,7 +2644,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
         <v>1.0307598651041591E-3</v>
       </c>
@@ -2666,7 +2658,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E29" s="6">
         <v>1.4694892048173344E-3</v>
       </c>
@@ -2680,7 +2672,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E30" s="6">
         <v>2.3383434522015125E-3</v>
       </c>
@@ -2694,7 +2686,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E31" s="6">
         <v>3.3172060592596979E-3</v>
       </c>
@@ -2708,7 +2700,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E32" s="6">
         <v>5.0579502114650524E-3</v>
       </c>
@@ -2722,7 +2714,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="6">
         <v>7.5130711206206511E-3</v>
       </c>
@@ -2736,7 +2728,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="6">
         <v>1.0957948373517106E-2</v>
       </c>
@@ -2750,7 +2742,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E35" s="6">
         <v>1.6061882702675903E-2</v>
       </c>
@@ -2764,7 +2756,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E36" s="6">
         <v>2.4362802804976602E-2</v>
       </c>
@@ -2778,7 +2770,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>3.4311325827616035E-2</v>
       </c>
@@ -2790,7 +2782,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E38" s="6">
         <v>4.8598878801018867E-2</v>
       </c>
@@ -2802,7 +2794,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E39" s="6">
         <v>6.5763807586594655E-2</v>
       </c>
@@ -2814,7 +2806,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E40" s="6">
         <v>9.3148464458987529E-2</v>
       </c>
